--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt5a-Fzd1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt5a-Fzd1.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06862399999999999</v>
+        <v>0.02354566666666667</v>
       </c>
       <c r="H2">
-        <v>0.205872</v>
+        <v>0.07063700000000001</v>
       </c>
       <c r="I2">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485919</v>
       </c>
       <c r="J2">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485918</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.668351</v>
+        <v>0.8596446666666667</v>
       </c>
       <c r="N2">
-        <v>2.005053</v>
+        <v>2.578934</v>
       </c>
       <c r="O2">
-        <v>0.0415898174224163</v>
+        <v>0.05286426382906832</v>
       </c>
       <c r="P2">
-        <v>0.0415898174224163</v>
+        <v>0.05286426382906832</v>
       </c>
       <c r="Q2">
-        <v>0.04586491902399999</v>
+        <v>0.02024090677311112</v>
       </c>
       <c r="R2">
-        <v>0.412784271216</v>
+        <v>0.182168160958</v>
       </c>
       <c r="S2">
-        <v>0.0003394543618017746</v>
+        <v>0.0001488422630937316</v>
       </c>
       <c r="T2">
-        <v>0.0003394543618017747</v>
+        <v>0.0001488422630937316</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06862399999999999</v>
+        <v>0.02354566666666667</v>
       </c>
       <c r="H3">
-        <v>0.205872</v>
+        <v>0.07063700000000001</v>
       </c>
       <c r="I3">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485919</v>
       </c>
       <c r="J3">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485918</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>31.307949</v>
       </c>
       <c r="O3">
-        <v>0.649405219104094</v>
+        <v>0.6417658132713033</v>
       </c>
       <c r="P3">
-        <v>0.649405219104094</v>
+        <v>0.6417658132713032</v>
       </c>
       <c r="Q3">
-        <v>0.7161588973919999</v>
+        <v>0.245722177057</v>
       </c>
       <c r="R3">
-        <v>6.445430076527999</v>
+        <v>2.211499593513</v>
       </c>
       <c r="S3">
-        <v>0.005300418416429645</v>
+        <v>0.001806927196269129</v>
       </c>
       <c r="T3">
-        <v>0.005300418416429645</v>
+        <v>0.001806927196269129</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06862399999999999</v>
+        <v>0.02354566666666667</v>
       </c>
       <c r="H4">
-        <v>0.205872</v>
+        <v>0.07063700000000001</v>
       </c>
       <c r="I4">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485919</v>
       </c>
       <c r="J4">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485918</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>14.897188</v>
       </c>
       <c r="O4">
-        <v>0.3090049634734897</v>
+        <v>0.3053699228996285</v>
       </c>
       <c r="P4">
-        <v>0.3090049634734898</v>
+        <v>0.3053699228996284</v>
       </c>
       <c r="Q4">
-        <v>0.3407682097706666</v>
+        <v>0.1169214076395556</v>
       </c>
       <c r="R4">
-        <v>3.066913887935999</v>
+        <v>1.052292668756</v>
       </c>
       <c r="S4">
-        <v>0.002522085673137346</v>
+        <v>0.0008597859331230583</v>
       </c>
       <c r="T4">
-        <v>0.002522085673137347</v>
+        <v>0.0008597859331230579</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>24.758105</v>
       </c>
       <c r="I5">
-        <v>0.9815546764233375</v>
+        <v>0.9868456480383168</v>
       </c>
       <c r="J5">
-        <v>0.9815546764233374</v>
+        <v>0.9868456480383166</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.668351</v>
+        <v>0.8596446666666667</v>
       </c>
       <c r="N5">
-        <v>2.005053</v>
+        <v>2.578934</v>
       </c>
       <c r="O5">
-        <v>0.0415898174224163</v>
+        <v>0.05286426382906832</v>
       </c>
       <c r="P5">
-        <v>0.0415898174224163</v>
+        <v>0.05286426382906832</v>
       </c>
       <c r="Q5">
-        <v>5.515701411618334</v>
+        <v>7.094390973341111</v>
       </c>
       <c r="R5">
-        <v>49.641312704565</v>
+        <v>63.84951876007</v>
       </c>
       <c r="S5">
-        <v>0.04082267978256551</v>
+        <v>0.05216886869646547</v>
       </c>
       <c r="T5">
-        <v>0.04082267978256551</v>
+        <v>0.05216886869646546</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>24.758105</v>
       </c>
       <c r="I6">
-        <v>0.9815546764233375</v>
+        <v>0.9868456480383168</v>
       </c>
       <c r="J6">
-        <v>0.9815546764233374</v>
+        <v>0.9868456480383166</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>31.307949</v>
       </c>
       <c r="O6">
-        <v>0.649405219104094</v>
+        <v>0.6417658132713033</v>
       </c>
       <c r="P6">
-        <v>0.649405219104094</v>
+        <v>0.6417658132713032</v>
       </c>
       <c r="Q6">
-        <v>86.125054297405</v>
+        <v>86.12505429740499</v>
       </c>
       <c r="R6">
         <v>775.125488676645</v>
       </c>
       <c r="S6">
-        <v>0.6374267297053455</v>
+        <v>0.6333237998865567</v>
       </c>
       <c r="T6">
-        <v>0.6374267297053455</v>
+        <v>0.6333237998865565</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>24.758105</v>
       </c>
       <c r="I7">
-        <v>0.9815546764233375</v>
+        <v>0.9868456480383168</v>
       </c>
       <c r="J7">
-        <v>0.9815546764233374</v>
+        <v>0.9868456480383166</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>14.897188</v>
       </c>
       <c r="O7">
-        <v>0.3090049634734897</v>
+        <v>0.3053699228996285</v>
       </c>
       <c r="P7">
-        <v>0.3090049634734898</v>
+        <v>0.3053699228996284</v>
       </c>
       <c r="Q7">
         <v>40.98068274541556</v>
@@ -880,10 +880,10 @@
         <v>368.82614470874</v>
       </c>
       <c r="S7">
-        <v>0.3033052669354264</v>
+        <v>0.3013529794552947</v>
       </c>
       <c r="T7">
-        <v>0.3033052669354264</v>
+        <v>0.3013529794552946</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.259381</v>
       </c>
       <c r="I8">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="J8">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.668351</v>
+        <v>0.8596446666666667</v>
       </c>
       <c r="N8">
-        <v>2.005053</v>
+        <v>2.578934</v>
       </c>
       <c r="O8">
-        <v>0.0415898174224163</v>
+        <v>0.05286426382906832</v>
       </c>
       <c r="P8">
-        <v>0.0415898174224163</v>
+        <v>0.05286426382906832</v>
       </c>
       <c r="Q8">
-        <v>0.05778585024366666</v>
+        <v>0.07432516442822222</v>
       </c>
       <c r="R8">
-        <v>0.520072652193</v>
+        <v>0.668926479854</v>
       </c>
       <c r="S8">
-        <v>0.0004276832780490115</v>
+        <v>0.0005465528695091126</v>
       </c>
       <c r="T8">
-        <v>0.0004276832780490116</v>
+        <v>0.0005465528695091126</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.259381</v>
       </c>
       <c r="I9">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="J9">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>31.307949</v>
       </c>
       <c r="O9">
-        <v>0.649405219104094</v>
+        <v>0.6417658132713033</v>
       </c>
       <c r="P9">
-        <v>0.649405219104094</v>
+        <v>0.6417658132713032</v>
       </c>
       <c r="Q9">
-        <v>0.9022985688409999</v>
+        <v>0.9022985688409997</v>
       </c>
       <c r="R9">
         <v>8.120687119568998</v>
       </c>
       <c r="S9">
-        <v>0.006678070982318808</v>
+        <v>0.006635086188477468</v>
       </c>
       <c r="T9">
-        <v>0.006678070982318808</v>
+        <v>0.006635086188477466</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.259381</v>
       </c>
       <c r="I10">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="J10">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>14.897188</v>
       </c>
       <c r="O10">
-        <v>0.3090049634734897</v>
+        <v>0.3053699228996285</v>
       </c>
       <c r="P10">
-        <v>0.3090049634734898</v>
+        <v>0.3053699228996284</v>
       </c>
       <c r="Q10">
         <v>0.429338613403111</v>
@@ -1066,10 +1066,10 @@
         <v>3.864047520628</v>
       </c>
       <c r="S10">
-        <v>0.003177610864925963</v>
+        <v>0.003157157511210724</v>
       </c>
       <c r="T10">
-        <v>0.003177610864925964</v>
+        <v>0.003157157511210723</v>
       </c>
     </row>
   </sheetData>
